--- a/data/trans_dic/P22$ss-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22$ss-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>96,95; 98,79</t>
+          <t>97,06; 98,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>97,46; 99,09</t>
+          <t>97,49; 99,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>97,82; 99,48</t>
+          <t>97,7; 99,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>98,09; 99,67</t>
+          <t>98,13; 99,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,6; 97,68</t>
+          <t>95,76; 97,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,69; 99,11</t>
+          <t>97,62; 99,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,5</t>
+          <t>98,09; 99,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>98,26; 99,44</t>
+          <t>98,29; 99,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>96,67; 98,0</t>
+          <t>96,62; 97,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>97,87; 98,94</t>
+          <t>97,85; 98,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>98,29; 99,36</t>
+          <t>98,3; 99,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,5; 99,41</t>
+          <t>98,53; 99,44</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,99; 97,76</t>
+          <t>96,01; 97,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,8; 96,77</t>
+          <t>94,76; 96,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,36; 97,2</t>
+          <t>95,39; 97,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>96,1; 98,06</t>
+          <t>96,07; 98,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,92; 96,95</t>
+          <t>94,97; 96,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,23; 97,23</t>
+          <t>95,24; 97,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>96,62; 98,08</t>
+          <t>96,56; 98,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>97,41; 98,69</t>
+          <t>97,43; 98,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95,82; 97,15</t>
+          <t>95,76; 97,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>95,33; 96,75</t>
+          <t>95,27; 96,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>96,26; 97,38</t>
+          <t>96,18; 97,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>96,98; 98,15</t>
+          <t>97,0; 98,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,76; 90,17</t>
+          <t>84,23; 90,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,92; 89,2</t>
+          <t>82,43; 89,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,02; 88,48</t>
+          <t>82,13; 88,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90,53; 94,32</t>
+          <t>90,35; 94,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>86,72; 92,3</t>
+          <t>86,86; 92,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,53; 92,81</t>
+          <t>86,26; 92,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,81; 91,27</t>
+          <t>85,74; 91,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,3; 93,14</t>
+          <t>89,14; 93,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>86,53; 90,55</t>
+          <t>86,64; 90,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>85,61; 90,27</t>
+          <t>85,49; 90,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>84,84; 89,11</t>
+          <t>85,03; 89,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>90,73; 93,28</t>
+          <t>90,62; 93,17</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,01; 96,37</t>
+          <t>94,93; 96,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,41; 96,01</t>
+          <t>94,33; 95,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,47 +1160,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,74; 97,36</t>
+          <t>95,8; 97,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,7; 96,15</t>
+          <t>94,72; 96,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,61; 96,92</t>
+          <t>95,63; 96,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,75; 97,11</t>
+          <t>95,8; 97,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,53; 97,63</t>
+          <t>96,51; 97,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95,04; 96,13</t>
+          <t>95,06; 96,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>95,29; 96,34</t>
+          <t>95,27; 96,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>95,28; 96,25</t>
+          <t>95,28; 96,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,33; 97,3</t>
+          <t>96,35; 97,34</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguridad Social</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1229</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1412</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2265</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1008649</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>959559</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>744101</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>510320</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1272659</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1317777</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>980406</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>745809</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2281308</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2277335</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1724507</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1256130</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>998664; 1016151</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>950167; 966758</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>735827; 748962</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>505298; 513247</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1258525; 1283935</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1305952; 1325611</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>971826; 985507</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>740273; 749054</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2264062; 2295719</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2262690; 2287381</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1714208; 1732600</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1249500; 1260971</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1597</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1786</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1881</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1494</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1581</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2855</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3091</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3740</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4787</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1638349</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1882146</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1997843</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2223527</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1523208</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1693868</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1934512</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2195694</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3161557</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3576014</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3932355</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4419221</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1622478; 1651991</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1860087; 1899072</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1978076; 2014692</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2200238; 2247250</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1506697; 1537760</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1674110; 1709284</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1918147; 1947972</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2180160; 2208816</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3137284; 3180498</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3544661; 3599668</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3905088; 3952750</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4392250; 4444673</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1534</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>483220</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>414394</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>466698</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>599090</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>427562</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>412724</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>487047</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>603906</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>910783</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>827118</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>953745</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1202996</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>464441; 497632</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>396622; 431328</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>448393; 482724</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>584245; 609530</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>413798; 440074</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>395598; 424610</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>470818; 500384</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>588729; 614368</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>890502; 931473</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>803451; 847721</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>931089; 977021</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1184442; 1217767</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3073</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3063</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3062</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3235</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3184</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3205</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5183</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6223</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6247</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6267</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8418</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3130219</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3256098</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3208641</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3332938</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3223430</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3424368</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3401967</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3545409</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6353647</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6680467</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6610608</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6878347</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3104184; 3152618</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3224960; 3281431</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3180292; 3233513</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3306877; 3360946</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3198770; 3247499</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3399066; 3446696</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3378330; 3423437</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3523944; 3565693</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6319080; 6387327</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6643483; 6718075</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6573367; 6641623</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6843792; 6914412</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>